--- a/500all/speech_level/speeches_CHRG-114hhrg20700.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>committee_name</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>400071</t>
-  </si>
-  <si>
-    <t>Steve Chabot</t>
   </si>
 </sst>
 </file>
@@ -451,9 +448,7 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G2" t="s"/>
       <c r="H2" t="s"/>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20700.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -50,6 +53,12 @@
   </si>
   <si>
     <t>400071</t>
+  </si>
+  <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +415,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,28 +437,36 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/500all/speech_level/speeches_CHRG-114hhrg20700.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,10 +58,361 @@
     <t>400071</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Chabot</t>
   </si>
   <si>
     <t>Steve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. The Committee will come to order. I want to thank everyone for being here today.    Last month the Department of Labor finalized the overtime rule which will affect millions of small employers all across this country. The Department of Labor has heralded this rule as a long overdue action that will provide tremendous benefits to workers. However, like so many of this Administration's policies, this one-size-fits-all will do, I believe, far more harm than good.    I have been meeting with small business owners, as Chairman of this Ccommittee, from all across the country. In fact, I just had a group of restaurant owners in my office right before this meeting, and I would like to share with you some of the things that they have told me.    They are only successful if they treat their employees well. Many give their employees the flexibility to leave work early and provide paid time off. They pay their employees as much as they can afford. When they can provide a bonus or a raise, they do. And when budgets are tight, many of the owners, the people who own these businesses, forgo paying themselves, so that each of their employees can take home a full paycheck.    Countless small employers, including small businesses, small nonprofits, and small local governments, do not have the profit margins or the budget flexibility to increase currently exempt workers' salaries to the new salary level.    The Department of Labor seems to think that employers will simply be able to raise prices or find extra money elsewhere. This just is not the case, particularly in rural parts of the country where the cost of living and wages are lower or for cash strapped technology startups that often pay lower based salaries, but provide equity in the companies as incentive to work there.    For many small employers, their only choice may be to shift workers from salaried positions to hourly status and require them to punch a time card. This means that many workers, particularly entry level managers, will have reduced flexibility, reduced paycheck certainty, and reduced benefits, as well as fewer opportunities for career advancement.    Numerous small employers weighed in on this proposal and told the Department of Labor that the unprecedented salary level increase would have very negative repercussions. They asked for a common sense rule that recognized that not all employers have the same resources or utilize the same compensation structures. Unfortunately their pleas fell on deaf ears.    I want to assure the small employers here today, and those tuning in from across this great country, that while the Department of Labor didn't listen to you, this Committee will. We are.    The December 1st compliance deadline is rapidly approaching. So today we want to hear how small employers are working to comply with these new requirements and what challenges that you are encountering.    We want to thank the witnesses, particularly those who have traveled from all across the country to be here today. And we are looking forward to hearing your testimony.    And I would now like to yield to the Ranking Member, Ms. Velazquez, for her opening statement.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>VELAZUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZUEZ. Thank you, Mr. Chairman.    Overtime pay and the Fair Labor Standards Act are cornerstones of economic fairness in our society. For nearly 80 years overtime rules have ensured that millions of workers are justly compensated when they work longer than the traditional 40 hour workweek. Yet, more and more Americans are working longer hours than ever before.    Those employed full-time report working an average of 47 hours per week and nearly 40 percent report logging 50 hours or more. Preserving the right to overtime pay is particularly crucial at a time when lower and middle-income families' wages are stagnant. These changes in the broader economy landscape prompted the Department of Labor to examine whether the standards used to determine which employees are eligible for overtime no longer reflected economic realities. In fact, it has been estimated that just 11 percent of salaried workers qualified for overtime. This is a significant decrease compared to 40 years ago when two out of three workers received time and a half working overtime.    In May the Department of Labor published its final revision of the overtime rules. The new regulations will extend overtime pay to 4 million workers currently exempted and strengthen protections for 6 million white collar and 3 million blue collar salaried workers within the first year of its implementation. This is the government's most significant step to address income inequality in recent memory.    The new overtime requirements will bring a number of important benefits to working families and to our economy as a whole. Lower wage workers tend to quickly spend any additional earnings they make. This means that if workers start receiving additional pay, they will likely spend that money stimulating their local economies, in many cases supporting small businesses in their community.    Likewise, if businesses elect to hire more workers, rather than having employees work overtime, then there could be potential job creation, furthering economic opportunity. Despite these positive outcomes, we have heard concerns as to how these regulations will impact the small business community. Increasing the salary threshold and the number of workers eligible for overtime pay could augment compliance and labor costs, putting financial strain on small business owners. This fact is particularly true for small employers located in low wage regions and in industries that operate with low profit margins.    More concerning is that small businesses have commented that the high costs of this rule could lead to hourly cutbacks to employees or even salary adjustments. Such actions runs counter to the goals of this rule and could ultimately harm employees.    Now that the rules have been finalized, we in Congress can get a better understanding of their impact. All of us want to see workers treated fairly and it has become clear that the overtime rules were due for an update. However, it is critical that we understand the new rules' impact on small businesses. This hearing is intended to accomplish that.    I thank the witnesses for being here today. And look forward to your comments. I yield back, Mr. Chairman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you. The gentlelady yields back. And if Committee members have opening statements prepared, we ask that they submit them for the record.    And I would now like to take just a moment to review our rules here relative to timing. It is pretty simple. We operate by the 5 minute rule. Each of you gets 5 minutes to testify and each member gets to ask questions for 5 minutes. Sometimes we go into a second round, sometimes we don't, depending on time.    There is a lighting system to help you out. The green light starts out, it is on for 4 of the 5 minutes, the yellow light comes on for 1 minute to let you know you are kind of getting near the red light, which means you are supposed to conclude your testimony by then if at all possible. We will give you a little time in addition if you need it, but we would ask you not to abuse it and stay within it as closely as you can.    And now I would like to introduce our distinguished panel here today. We will begin with you, Mr. Robinson. Our first witness will be Adam Robinson, the cofounder and CEO of Hireology, a Chicago-based technology firm that was launched in 2010 to revolutionize the hiring process. In 2015 Mr. Robinson was added to the Chicago Tribune's Blue Network, a listing of Chicago's most influential entrepreneurs and innovators, and named a ``Top 25 HR Industry Game Changer Under 40'' by Workforce Magazine.    Under his leadership, Hireology has been recognized nationally by Entrepreneur magazine as a ``Top Company Culture'' and by Crain's Chicago Business as a ``Best Places to Work'' for both Millennials and Generation X. Mr. Robinson is testifying on behalf of the Job Creators Network today and we welcome you here.    Our next witness is the Honorable Jerrie Tipton. Ms. Tipton is the chairman of the Mineral County Board of Commissioners in Nevada. Commissioner Tipton was elected to the Board in 2006 and also serves as Mineral County's representative on many associated boards, including the local Conservation District. She and her husband have a livestock operation and a business that supports exploration drilling in the region.    Commissioner Tipton is also an active member of the Nevada Association of Counties. Today she will be testifying on behalf of the National Association of Counties. And we welcome you here as well, as a former county commissioner myself we especially welcome you.    Our third witness is Mr. Albert--is it Macre?</t>
+  </si>
+  <si>
+    <t>MACRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. MACRE. Macre    Chairman CHABOT.--Macre, who is testifying on behalf of the National Federation of Independent Business, NFIB. He is the owner of three small businesses, including a small payroll firm based in Steubenville, Ohio, called Payroll + Services, which has served 200 small to medium size businesses since 1994. Mr. Macre also--did I pronounce that right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. MACRE. Macre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Macre--I have a mental block and it--Macre, sorry about that. Everybody is always mispronouncing my name so--Mr. Macre, also currently serves as an assistant professor of accountancy at the Franciscan University of Steubenville and lends his expertise to various boards and organizations such as the NFIB/Ohio Leadership Council and the Ohio Business Gateway Steering Committee.    He received a master of accountancy from Miami University in Ohio with an emphasis in financial accounting and taxation. A great university. The head of our Small Business Committee, a Miami graduate, my brother a Miami graduate, our son a Miami graduate so a great school.    Our fourth witness is Ms. Christine Walters. She is an attorney and the sole proprietor of FiveL Company in Westminster, Maryland, and will be testifying on behalf of the Society for Human Resource Management. Since 2002, Ms. Walters has provided full-time human resources and employment law consulting to small businesses and small nonprofits.    Prior to starting her firm, Ms. Walters worked nearly 10 years in human resource administration. She has also served as an adjunct faculty member of Johns Hopkins University and worked in a law firm, Saul Ewing L.L.P. Ms. Walters has received numerous nominations and awards for her work, including the small business of the year award by Baltimore Washington Corridor Chamber of Commerce in 2010. Congratulations for that and we welcome you here.    And I would now like to yield to the ranking member to introduce our fifth and final witness.</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you, Mr. Chairman. It is my pleasure to welcome back Mr. Ross Eisenbrey, vice president of the Economic Policy Institute. Prior to joining EPI, he worked as a former commissioner of the U.S. Occupational Safety and Health Review Commission and as the policy director of the Occupational Safety and Health Administration. Welcome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Mr. Robinson, you are recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>ROBINSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. ROBINSON. Thank you, Chairman Chabot, Ranking Member Velazquez, and members of the committee for the opportunity to testify about the impact of the Department of Labor's new overtime rule. This rule requires employers to provide overtime pay to employees whose salary is less than $47,500, which is about double the existing threshold.    What I want to do in my time today is focus on how this rule will adversely affect technology startups and high growth small business owners like me and what that means for the people we employ. I am the CEO and co-founder of a human resources technology business called Hireology. We have streamlined and improved the hiring process to help companies eliminate bad hires and identify good ones.    We have also fielded hundreds of confused inquiries from our customers about how to comply with this rule. As a result, we have a unique perspective to speak about its impact. Like most Federal regulations, the overtime rule is a one-size-fits-all policy that doesn't distinguish among firm size, sector, location or comp structure. This means that companies that don't fit the Department of Labor's outdated model will disproportionately be hurt by the rule. Take the capital constrained technology startup sector that I work in for example. Employees at these companies trade long hours and lower pay for the opportunity to get amazing professional experience early in their careers and the potential for a significant financial windfall later on.    Are we exploiting these employees? Of course not. Those working at tech startups voluntarily recognize that their positions are high-risk, high-reward ventures and that they may have to go years with below market pay to get a big pay out in the end. Do we want to regulate these opportunities out of existence?    Looking back on when I started my company in 2010, I can tell you with 100 percent certainty that I would not have been able to hire my first employee had this rule been in place. My company now has 100 employees with median, median annual compensation that exceeds $70,000 a year, well above the U.S. average. How many ``Hireology's'' won't get started as a result of this rule, making that first employee unaffordable for the entrepreneur. Are fewer good paying jobs created and fewer businesses launched outcomes that this ruling is desiring? I don't think so.    Sales professionals, the lifeblood of almost every company, also suffer from this rule because their commission-based compensation structure doesn't align with the Department of Labor's vision of the workplace. Consider what my company is facing, 40 of our 100 full-time salaried professionals are salespeople whose success, like with most sales positions, depends on persistence. That means working until the sale is made, whatever the hours. We pay new sales people a base salary of $40,000 a year. And those who hit their quota can earn $70,000 to $120,000 a year or more. This compensation structure is pretty typical in software startups and sales sectors because it allows employees to directly share in the profits they produce for the company.    However, the overtime rule forces us to choose between raising base salaries to the new exempt threshold or convert everyone on the sales team, about half my business, to an hourly rate, capping hours at 40 a week. Both alternatives are very unattractive. A 20 percent pay increase for new hires to put them above the threshold would hamstring our expansion plans, but capping hours at 40 a week would mean a loss of earning potential for all of our sales people, and add costly time tracking overhead to our bottom line. Both paths result in less opportunity and fewer middle class jobs.    To the extent that employers like me are forced to reclassify employees as hourly to avoid unexpected overtime costs, these high paying job opportunities will be reduced. Millions of Americans have entered the middle class by securing a salaried job when working their way up by working until the job gets done. That means sometimes during a busy season, a financial month-end, or when a coworker is out sick, working longer than 8 hours a day. In return these employees are rewarded with the flexibility, benefits, bonuses, status, and promotions that come with a salaried position. It is not exploitative. It is a key tenet of American work culture and startup culture.    Reduced middle class job opportunities as a result of this rule will be compounded in parts of country with lower standards of living. Companies in Chattanooga will have a much more difficult time complying with a $47,500 salary threshold than companies in Chicago. As a result, the rule will be another hurdle for smaller communities across the country that are still suffering from high unemployment and a lack of middle class job opportunities.    I urge you to pursue legislative solutions to undo the harm that will be inflicted by this overtime rule. At a time when the middle class in this country is already being squeezed, the tech sector, sales jobs, and middle management positions are a few areas that still provide relief. The overtime rule threatens to close those career pathways that have been paved by hard work.    Thank you for your time today, and I am happy to take any questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. Commissioner Tipton, you are recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>TIPTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. TIPTON. Thank you, Chairman Chabot. Is that right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Chabot like rabbit, but yeah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. TIPTON. Chairman Chabot, Ranking Member Velazquez and members of the Committee, thank you for the opportunity to testify today on the impact of U.S. Department of Labor's overtime rule on entities including small governments.    My name is Jerrie Tipton, I serve as chair of the Mineral County Nevada Board of Commissioners, and today I am representing the National Association of Counties.    Mineral County has a population of 4,479. Our county employs 102 full-time salaried workers--no 102 full-time employees and has a median household income of the county of $38,664. Mr. Chairman and members of the Committee, as you continue to assess this new rule and the potential impact on small entities, including counties, I would like to highlight three observations.    First, America's 3,069 counties employ 3.6 million people and deliver public services to more than 300 million Americans. Because of our role as employers we are concerned that the new rule could have unintended consequences for counties, especially small and rural counties, hindering our ability to provide crucial services to the communities from transportation and health, to public safety and emergency services.    Almost 70 percent of counties are considered rural, with fewer than 50,000 residents. Together we employ over 410,000 full-time workers, and serve almost 40 million Americans. Most of us do not have the flexibility in our local budgets to pay the newly eligible employee overtime pay, especially as soon as December. Rural counties have been doing more with less, and without new revenue sources it is hard to see any alternative than to cut services that benefit the residents to pay for this rule.    Second, the new rule does not adequately address the wide variations in local labor markets across the country. Labor markets across the country vary dramatically in our counties. However, the DOL's overtime rule takes a one size fits all approach. Let me explain why this is a problem. In 34 of the 50 States, local government employees earned less than $46,000 a year, less than the new salary threshold. In 97 percent of the counties in the South Census Region, the average wages in local government are less than the new threshold. That is why DOL rule does not provide an accurate picture of the major differences in labor markets across the local communities.    Finally, the new rule will have broad consequences for taxpayers and county services. Many counties are still struggling to recover from the recession and may not have the resources to absorb sudden spikes in labor costs. According to the NACo's County Economies 2015 report, only 214 of those county economies have fully recovered to their pre-recession levels. In Mineral County the new rule would make 13 to 17 of our full-time, 102 full-time employees eligible for overtime pay.    The additional cost would be up to $45,000 a year for us. It might not seem like a lot but it poses quite a financial challenge since counties are limited in our ability to generate local revenue. In fact, more than 40 states limit the county's ability to collect sales tax and/or property tax and other fees. This leaves us with a difficult choice: Which critical local services do we cut to fund the rule?    Additionally, 62 percent of counties nationwide have considerable federal land within their boundaries. Federal lands are not subject to local property taxes, further reducing the local property tax base. Moreover, many counties have budget years that run from July 1st to June 30th, which means their budgets have already been approved for the coming fiscal year. In my county, we finalized our budget before the 1st of June and had it certified and approved by the State of Nevada. Since the DOL rule goes into effect in December, it doesn't take into account that our finances are already set through next July. It complicates our ability to comply with the rule in the short term. And furthermore, counties have limited human resource personnel and advisory staff.    While the DOL estimated the small entities may incur $100 to $600 in compliance costs, counties typically spend a higher amount of time and money on compliance because we have less staff capacity and in-house expertise. Many counties may need to hire outside consultants which is again costly.    Finally, comp time not a complete solution for counties. Where the DOL rule allows us to provide comp time this isn't realistic since we have such a small number of employees to start with. If one key employees uses comp time, I may not be able to carry out public services that protect the community. For example, we have one librarian who is now eligible for overtime pay. If she uses comp time, we would have to shut the library down and that would create a problem for some of the residents because the library is the key source for Internet access in a county with limited broadband service.    In conclusion, while we share the same goal of fair wages, we are concerned that the new rule will impose considerable burdens on the counties. We stand ready to work with Congress to help craft policies that are fair to workers and workable for county governments.    Thank for the opportunity to testify and I will be happy to take any questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. Mr. Macre, you are recognized for 5 minutes. And feel free to mispronounce my name if you so choose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. MACRE. Good morning, Chairman Chabot, Ranking Member Velazquez and members of committee. My name is Albert Macre. I am a CPA, and the owner of several small businesses located in eastern Ohio, one of which, Payroll + Services, is affected by the new Department of Labor overtime rules for salary exempt personnel. And I am pleased to be here on behalf of the National Federation of Independent Business to discuss these rules at today's hearing.    NFIB is the Nation's leading small business advocacy organization, representing 325,000 independent business owners located throughout the United States, 25,000 of which are located in my home state of Ohio and several who are here to support me in my testimony today.    As a small business owner with several salaried employees positioned between the current exempt overtime earnings threshold and that created by the DOL new rule, I now find myself standing with countless other small businesses forced to swallow more government medication prescribed before an accurate attempt at diagnosis has been completed.    NFIB believes that the rule will have a substantial negative impact on small businesses and their employees. Frankly, the 100 percent increase in the salary exempt threshold to $47,500 is too much too fast. To put the significance of this into perspective from the time the last is salary threshold was increased in 2004, the Consumer Price Index has only risen by 28 percent.    To make matters worse, the threshold will be automatically updated every 3 years. And while the rule does allow for the use of nondiscretionary bonuses and incentive payments to satisfy up to 10 percent of the standard salary level, the reality is that few administrative and lower level supervisory personnel receive such compensation.    NFIB estimates that the new rule will impact approximately 40 percent of small businesses, while the Department of Labor has said that the rule would affect over 4 million employees. Instead of increasing wages for certain employees as the DOL might project, the rule will force small business owners to take more control of employee hours and benefits to keep costs in check. These controls could ultimately result in employees taking home less money annually. And don't underestimate the impact on employee morale as affected employees are told that they must now punch a time clock for the first time in their careers.    In addition to these negative impacts, the implementation window is very short. This rule will become effective on December 1, 2016, just over 5 months from now. Given that many small businesses are still struggling with the implementation of the Affordable Care Act 5 years after enactment, this window of compliance barely seems cracked open.    From a personal perspective, this rule is likely to have negative consequences not only to my company but my employees as well. Payroll + opened in 1995 in response to my clients' desire to farm out payroll processing services to a local, low cost provider. We currently have three salaried employees earning above the current threshold and below the new amount. We operate on a 30 to 35 hour workweek for 8 months of the year but do incur substantial overtime during the four payroll tax months.    Our employees appreciate the certainty of their salary-based take home pay each period. They also appreciate the fact that they don't have to punch a time clock every day. And I estimate that the roughly 600 hours of overtime our employees work each year are offset by the less than 40 hour workweek the remainder of the year.    Unfortunately, the law doesn't allow me to bank the short weeks to offset the long weeks. In addition, we pay 100 percent of our employees' health insurance and have done so since we opened our doors.    Without getting into the analytical weeds, in order to keep employee take home pay consistent, we are contemplating a system of salary advances to be recovered during the overtime months. In order to keep our cash flow level, we are contemplating for the first time in 20 years requiring employees to bear a share of the cost of their health insurance benefits.    DOL's new overtime rule will have a significant, and in my belief, negative impact on employers and employees alike. In order for small businesses to avoid costly overtime pay, managers move from their salaried positions to hourly jobs will need to keep time cards and be prohibited from working overtime, including answering email from home. This will not only be a burden financially, but in terms of productivity, as managers and supervisors will only be allowed to work when permitted. From an employee perspective, the flexibility that so many had will become a thing of the past.    NFIB anticipates the changes will hit hardest those low- to mid-level managers. These managers currently make less than the proposed threshold but value workweek flexibility and benefits such as health insurance and employer provided pension benefits. Also fewer salaried managerial positions would signal to employees that there is little opportunity for growth at the company. These consequences will severely hamper opportunities in growth and development, not just for the small business but their employees as well. Unfortunately, neither can afford it.    Thank you for allowing me to share my thoughts with you and at the appropriate time I will answer questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. Ms. Walters you are recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>WALTERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. WALTERS. Thank you. Good morning, Chairman Chabot, Ranking Member Velazquez, and Committee members.    I am Christine Walters, sole proprietor of FiveL Company where I serve as an independent human resources and employment law consultant to numerous nonprofit and small business clients. Prior to that I worked as an in-house HR practitioner for 12 years in the nonprofit sector, including government contracting.    I appear before you today on behalf of the Society for Human Resource Management or SHRM.    I appreciate the opportunity to share a little bit about what this new overtime rule means for my clients, as well as SHRM's reaction to the final regulation.    In short, Mr. Chairman, while SHRM supports an increase to the salary threshold, we agree that the final overtime rule may be too far too fast. Small businesses and nonprofits in particular may be disproportionately impacted by the rule's dramatic and more than 100 percent increase to the salary threshold, and this threshold may escalate since the final rule includes an automatic update every 3 years.    Let me explain briefly how the rule may impact some of my clients, their employees, and the services that they provide. Let me start with the employees and how they may be impacted.    Under the final rule, newly nonexempt employees will likely face reduced workplace flexibility or I will call it work flex. Today, many employers provide exempt employees with work flex opportunities, such as, for example, the ability to leave work early next week, such as for a parent-teacher conference, in consideration of having worked extra hours this week, and to do that without using paid leave and without reducing their pay. In fact, employers are generally prohibited today by law from docking an exempt employee's pay for a partial-day absence.    And that is at the heart of exempt compensation. The salary is based on an understanding that an employee's work schedule regularly exceeds 40 hours a week and that employee is paid the same wages every week regardless of hours worked, whether it is 46 or 36.    However, employees classified as nonexempt cannot be granted the same flexibility that I just described. If they work in the private sector more than 40 hours this week, they must be paid overtime, and that cannot be offset by taking hours off from work next week. Thus I find most employers require nonexempt employees to use paid leave for any partial or full day absence. And if an employee has no paid leave remaining, then the absence from work may be without pay where that is permitted by state or local law.    It is clear to me and others that nonexempt employees do have fewer options and less flexibility to manage work-life needs than exempt employees.    And while the rule affects all employers, the rule will drastically impact the operations of small business and nonprofits who cannot simply raise the fee or price for the services they offer to offset those increased labor costs. They must find a way to raise additional funds, obtain an increase from public or private sector funding sources, all of which are limited.    For example, one of my clients provides rehabilitation services to a disadvantaged population of whom 85 percent currently meet the poverty threshold. This organization will not and really cannot transfer those increased labor costs to their low-income consumers. They have to face some unattractive alternatives. One might be reassigning the overtime duties that are currently performed in excess of 40 hours in a week to those employees who will remain exempt, and that is likely to adversely impact those coworkers' working relationships as well as the employer and employee relationship.    And the impact won't be just in the form of expenses, but also in the form of compliance. The Office of Advocacy of the U.S. Small Business Administration noted that increasing the salary level would add significant paperwork burdens on small entities, particularly businesses in low-wage regions and industries that operate with a low profit margin.    For example, employers also have to consider federal, state, and local laws and regulations that apply to nonexempt employees, including and not limited to dictating pay frequency, paid leave mandates, minimum wage, fair and predictive scheduling requirements, limits on mandatory overtime, on-call pay, travel pay, waiting pay, pay before and after a holiday, to name a few.    So for small businesses and nonprofits who often have a one-person HR manager/payroll manager, navigating all these complex rules can add an additional compliance burden that is overwhelming.    So with that, in closing, SHRM and employers across the country have serious concerns with the implementation of the final overtime rule at this time. We strongly support House Resolution 4773, Protecting Workplace Advancement and Opportunity Act. It simply seeks more time for further study on the economic impact of the rule and what it will have on employers for varying sizes, industry sectors, and locales. SHRM and its members look forward to working with Congress to improve this rule in a way that works for employers and employees.    I thank you and also welcome your questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much.    Mr. Eisenbrey, you are recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>EISENBREY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Thank you, Mr. Chairman, Ranking Member, members of the Committee. I am Ross Eisenbrey with the Economic Policy Institute, a small nonprofit with one HR manager who somehow manages to have us comply with the law.    And we have looked at this, and the amount of time it takes to figure out what this rule does and comply with it is minuscule since what it says simply is, if you make less, if you pay your employee less than $47,476 a year, pay overtime. That is what the law does.    It makes it much easier to comply for nonprofits. We have talked to nonprofit managers who say that they have maybe even 100 employees at various nonprofits scattered across the country that they supply HR services to and it will make the job so much easier for them. They don't have to look at duties tests. They don't have to figure out whether somebody is an administrative employee or qualifies as a professional. They just know, if is less than $47,476, that is the end of the story.    The rule that the Department has issued increases the number of salaried workers who are entitled to overtime pay and does several important things. It will encourage employers to give raises. And the rulemaking record is full of employers and employer associations who did surveys and their members say they will raise their employees above the threshold. So there will be pay increases across the country as a result of this rule.    It will reduce the excessive number of hours worked by millions of others, giving them a better work-life balance. It will ensure that salaried employees get paid time and a half when they work more than 40 hours in a week. And it will cause employers to create more than 100,000 jobs, according to the National Retail Federation, in its sector alone. And Goldman Sachs affirms that view. This is a job-creating rule.    They make it clear, the rules make it clear that it doesn't matter whether you are salaried or hourly, blue collar or white collar or pink collar, you will be entitled to overtime pay if you make less than $913 a week. This provides clarify that will prevent litigation. It tells people their rights in a way they haven't known them before.    It is popular. The Gallup Poll found that 67 percent of the public supports making more employees eligible for overtime pay and only 14 percent oppose it.    It carries out the statutory intent of the Fair Labor Standards Act, and this is the Department's duty after all. The law says that everyone is entitled to overtime pay, essentially, except bona fide executives, bona fide professionals and administrators. There is no exception from the rule for salaried workers, white collar workers, supervisors, paraprofessionals, or, incidentally, sales employees. The exemption applies only to a narrow class of genuine professionals, genuine executives, and other highly paid employees whose independence and bargaining power make protection against overwork unnecessary.    Being called a manager and being paid a salary of $35,000 or $40,000 a year doesn't make you that kind of an executive. Dawn Huey, a woman I met who lives in Swartz Creek, Michigan, was a dollar store manager for almost 3 years. When she was hired, she had 28 years of retail experience and felt she had finally climbed up the ladder into the middle class. She was told she would work 44 hours a week at about a $35,000-a-year salary.    But the 44-hour weeks quickly stretched into 60 and 70 hours with no overtime compensation. She wasn't allowed to hire enough staff to do all the work, so she did it herself; 13-hour shifts from open to close became common. At one point, she went 4 straight weeks without a day off and usually worked holidays with no overtime compensation. The first 4 to 5 hours of every day she was the sole store employee, she worked the cash register, did inventory, stocked shelves, moved heavy boxes. She literally ran the store on the run and ended the day mopping floors from front to back.    You hear from some employers and lobbyists about flexibility that salaried workers have. Here is what Dawn said: ``The idea that I had been hired with a flexible salary was a cruel joke.'' There were times her executive--her so-called executive salary--divided by her weekly hours was less than the minimum wage, and that was legal because exempt executives are exempt from the minimum wage too.    Her story is repeated all across America at major corporations and their small business franchises from Burger King, to Dunkin' Donuts, to Walgreens. The new rule will not completely eliminate that kind of abuse of overtime, but it will make it more costly, and therefore less likely.    This rule has great benefits for people like postdoctoral researchers who are paid $43,000 a year on average and work 55 hours or 60 hours a week. They will get salary increases at universities all across the country because it will be much cheaper for a university to pay them a more reasonable salary for their Ph.D. in science and their science research abilities than it will be to pay them the overtime that would otherwise be required.    The truth of the matter is that the rule will hardly make a dent in most employers' payrolls and profits. And I encourage you to look at the Department's rulemaking where table 30 shows that the impact on every industry group is less than one-tenth of 1 percent of payroll. Only transportation and utilities will experience costs as great as 1 percent of profits.    That is a tiny price to pay for a rule that will provide a better work-life balance for millions of Americans, that will improve health and productivity, reduce employee turnover, and put more money into the pockets of millions of middle class Americans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much.    We will now turn to ourselves and ask questions. I recognize myself for 5 minutes.    I had a number of questions I was going to ask but your testimony, Mr. Eisenbrey, I am going to shift direction. I think that perhaps all the concerns that I have heard from America's small businesses for months and months and months now, and perhaps the panel here today, our concerns must have been unfounded. This is a good rule that is going to benefit workers all over the United States apparently.    I would be happy to open it to the other witnesses. Do you want to tell the panel why you think that perhaps the point of view that you just heard testified to by Mr. Eisenbrey is incorrect or is he right?    Mr. Robinson.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. ROBINSON. Thank you, Mr. Chairman.    I can comment pretty directly there. I mean saying it is so easy, all you have to do is pay overtime to people that make less than $47,500 a year is like telling me 5 years ago: The ACA is so easy, just buy everybody health insurance, no problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Yeah. And the ACA, for anybody who may be watching out there, is the Affordable Care Act, or some people refer to it as the un-Affordable Care Act or ObamaCare, that is what you are referring to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. ROBINSON. Correct. And we do provide and have always provided health care for our employees, but it makes the compliance so much harder.    And buried in table 30--and I haven't read that report--but buried in table 30 is Hireology and thousands of other technology startups. And I am telling you firsthand this is going to take our cost up 20 percent, not a tenth of a percent, 20 percent.    And, yes, we can do that, but what that means is we shift very, very scarce resources from one part of the business, where we can maximize our growth and create more opportunity, to complying with this rule and to hitting a salary threshold.    And the net effect for those employees that we bump base is we have to reduce their upside, because you cannot take up fixed cost and not reduce variable upside. There is just not enough money to do that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Let me go ahead and ask another question. Commissioner Tipton, I will turn to you, if I can.    In your testimony, you explained that Mineral County, your county, doesn't have the flexibility within its budget to comply with the overtime rule by December 1, and that you don't see any alternative to cutting services. What type of services would you have to cut? And how would this affect the residents of your county that you represent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. TIPTON. Okay. Our budgets are set. The State of Nevada says this is when your budget cycle is. They are done.    For us, we can't raise revenue. Mineral County is 2 cents over the state cap already paying off a school bond debt. We had less than 1.5 percent of our land base has taxable infrastructure on it out of 3.4 percent private land and the rest of it is federal in one form or another. There is nothing to raise taxes on.    What it is going to mean is, in order to make this work, if we have to fall in compliance, and we are going to have to, we are either going to reduce, to start with, what is considered nonessential services like the library, the park and rec. And my offset to that is in that community, if I don't have something for those kids to do, I am going to have it them in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. And JPO is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. TIPTON. Juvenile protection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you.    Let me shift over to Mr. Macre now, if I can.    Sir, could you give us some examples of employee perks and benefits that are likely to have to be reduced because of this new overtime rule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. MACRE. From our perspective, again, not only are we a small company, but we are a small payroll company that performs payroll services for other small companies. A lot of those businesses do provide pension benefits, 401(k) contributions, health insurance. There is not a finite number of dollars here. In Mr. Eisenbrey's testimony he said, if they make over $47,500 just pay them overtime. Well, hell, that is real easy, but where does this money come from?    We figured that that increase in overtime cost to our small, little company would entirely consume the revenue that is generated by 12 clients. So where do we just magically get this 8 to 10 percent increase in size to automatically cover this? So we are likely to have to for the first time, like I said, take health insurance dollars from these employees.    And the way I projected it, our take-home pays are actually going to decrease as a result of paying our employees more. The math is a little bit funky, but accountant math and economics math are a little bit funky at times. But we have determined that actually payroll, net pay, could decrease as a result of gross wages going up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. My time has expired.    The Ranking Member is recognized, Ms. Velazquez of New York, for 5 minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you, Mr. Chairman.    Mr. Eisenbrey, from 1979 to 2013 inflation-adjusted wages have grown 15 percent for the bottom 90 percent of income earners, while wages for the top 1 percent have grown 137 percent. I think that it is very clear that something has to be done. How will this rule accomplish that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. It is a great question and it answers Mr. Macre's query, which is the money will have to come, as he says, from somewhere. Where it will come is from the owners of the businesses. There is no question about that. And if you are the owner of a business, you can not like that or you could be like Mitchell Kaplan at Kaplan Stahler in Las Angeles who said: I make a good income, and the law will change and I will pay my people more.    Executive salaries have increased in the United States so much faster than salaries at the bottom, the share of national income that goes to business owners has increased so much that we now have a trillion dollars less that is being paid to the labor force in the United States than we otherwise would have if we had the kind of equality that the Ranking Member mentioned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. California has the highest state overtime standards and over the last 5 years has led the country in employment growth. Is what California did a model for the Nation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. That is exactly right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. And how do these findings compare to the testimony we have heard today?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. The fact of the matter is that employment growth depends on businesses having customers, and businesses have customers when working people are paid enough that they can go out and shop and buy things. California has been the leader in the overtime threshold at $41,500 and, as you say, its employment growth is much faster than the Nation as a whole. It is not proof, but it is a real indication that this kind of policy, putting more money into the pockets of the workers, is good for the economy overall.    I would just like to say that back in 1975, for example, and in the 1960s, we had a much higher threshold. Small businesses did not suffer then, they managed. I am old enough, maybe older than the rest of the people on the panel, to remember working back then when the threshold in today's dollars would have been $64,000.    So this is a much easier rule to adjust to than businesses had to adjust to in the past. They did it well then, they can do it today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you.    As we all know, the cost of living and therefore wages drastically differ based upon the location of the business. And this one was one the most common concerns in comments filed, that the proposed changes do not account for the diverse economies across the country.    Why did DOL choose to go with a national minimum salary threshold instead of keying it to government data on regional cost-of-living differences?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. What the Department did was actually it did what some people will call one-size-fits-all, but the one size was fit to the poorest region in the country. They set the salary at the 40th percentile for salaries in the South, in the poorest of the four census regions. As I say, it is a very modest level. This is not an executive salary in New York and an executive salary in Boston. It has been set at the level for an executive salary in Chattanooga or in Tipton, Nevada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Small-business owners, and we heard them here, are warning that they may have to move currently salaried employees to hourly rates. This can be construed as a demotion by these workers and can impact their morale and even their fringe benefits. Is there a way for small businesses to avoid such changes under the final rule?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Yes. If you look in the comments that were submitted for the record, there are numerous comments where employers say they will not do that, they will either reduce, just hold people to 40 hours a week. They don't have to change them to hourly. That is not the majority of the survey findings that I see in the record in the comments that were submitted.    There is nothing in the rule that says that you have to change someone from salaried to hourly. This Committee had a witness who made this claim back in the fall. She herself was already tracking the time of workers and giving them bonuses based on the extra time that they worked.    So there is nothing in the rule that dictates how an employer responds to this. There are a variety of different responses possible. I have talked to employees, incidentally, who have already in some cases been switched to receiving overtime. I am not sure whether they were salaried or hourly after the change. But they said: This doesn't feel like a demotion to me, I am happy getting the overtime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you. I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. The gentlelady's time has expired.    The gentleman from Missouri, Mr. Luetkemeyer, who is the vice chairman of the Committee, is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412292</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Luetkemeyer</t>
+  </si>
+  <si>
+    <t>Blaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Thank you, Mr. Chairman, and I appreciate the opportunity.    I think we need a little clarification here. I was listening to Mr. Eisenbrey's testimony, and he made the comment that we have 117,000 new workers that are going to be hired. Those, according to the study that he quoted, an Oxford Economics study that was commissioned by National Retail Foundation, those are part-time workers, by the way.    And those part-time workers are required to be hired because you are going to have to have somebody else to do the additional work that the people who have been working will not now be doing because you are not going to pay them overtime. It is cheaper to hire someone part-time than it is to pay them overtime. So it is a part-time worker.    Also, you made a comment with regard to 42 million new people that are going to be eligible for overtime. The same study indicates that three-quarters of those people right now don't get overtime. So you are only talking about 825,000 people. And the same study also indicates that they probably would get about 1 hour per work of overtime, which would be about $20 per week that they would increase.    In the meantime, the Regulatory Flexibility Act analysis by DOL itself indicates that there would be $3,265 of total compliance costs, including wages, which means that for $20 an hour for the employees it is going to cost the employer $3,265 for the individual. Plus, the employee is probably going to lose benefits, flexibility from the standpoint of health benefits, retirement benefits.    And, Mr. Macre, you deal with a lot of small businesses. Is that the experience that you see with what is going on, that people are going to have to hire part-time workers to make up the difference, cut back on benefits to be able to make the bottom line?    Because at the end of the day, as Mr. Eisenbrey made the comment a while ago, I don't think he understands there is only a finite number of dollars in each one of the pockets of the owners. You can only pay for so much increase in cost. You can't continue to pay to increase this otherwise your competition is going to eat you and you are going to go out of business.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. MACRE. Well, again, where we are, we are in eastern Ohio, we are in that Appalachian area, we really can't raise fees. So it was pointed out that the money could come from the owners' pocket, and I would be happy to send you my K-1 from Payroll + Services. There is no money that goes into my pocket from that business. So it is going to come from the employee's pocket.    The business was never designed to generate immense amounts of profits. It was designed to generate a service and actually to employ people. That is probably an anomaly in the business world, but that is the way it was set up.    So I don't it know what option we have other than to reduce costs, because, again, the increasing revenue option is probably off the table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Commissioner Tipton, you are in a unique situation where you can't go out and price your product. You are delivering services with a finite number of tax dollars. How do you anticipate trying to do this? Are you going to wind up having more part-time workers, are you going to reduce the benefits, health insurance, retirement benefits for the employees? I mean, how are you going to make the same number of dollars stretch to comply with the rules?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. TIPTON. Yes, sir. I am not the king of the world, and so this is something that we have been having conversations on at the board level. Our options are right now Mineral County pays 100 percent of the employee benefits and at least half of their retirement right now. We are either going to have to say, okay, boys if we have to do this, then those of you we are doing this for, you are going to have to pay part of your benefits. And if it is sauce for the goose, is it also sauce for the gander, see? So do we make everybody pay part of their benefits?    I look for us to reclassify some of those individuals and take them out of a salary exempt to an hourly exempt, and what business does not get done does not get done. We can't afford to hire part-time people, not even school-to-career people 19 hours a week to pick up the slack. We don't have the revenue, sir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Mr. Robinson, what kind of a problem do you have with employee morale when you have to reclassify somebody down to an hourly worker? Even though they are making the same amount of money, now they lose benefits, lose retirement, even though they are doing the same job, but they are being viewed as an hourly worker.    How does that work with employee morale? And if you do wind up paying benefits, how is that going to affect the rest of the employees who don't get the benefits?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. ROBINSON. Well, it is going to have an impact. And I invited my whole company to tune in and listen to this, and we are going to have a talk about it when we get back to Chicago and explain why we are having to take these actions.    We offer our employees unlimited time off. We don't track time off. People need to take time, they get the job done, they can take 2 weeks, they can take 3 weeks if they want, with permission to do that. They can take as much or as little as they want. They can work from home 100 percent. They can come in the office 100 percent of the time. They can do whatever they want. We don't track any of that.    Let me state for the record, our goal, we would love to see wages lifted as well. We share that goal. You do that by attacking opportunity and growing it, right, and employing people, that is how you do that.    And I would invite Mr. Eisenbrey to come in and tell my sales force that they are not a bona fide professional. These folks went to school, it is 100 percent college degree, most of them are carrying huge student loan payments. They have invested in themselves to get ahead.    And imagine me walking back in there and saying: Hey, guys, here is your new time clock. We are going to punch it. And I know you are really striving to make that extra money, but you can't over 40 hours a week. And you can't work from home anymore unless we put this time-tracking app on your phone. And by the way, don't respond to customer inquiries after 5 o'clock, they are just going to have to wait till tomorrow.    And so this cascades and impacts our ability to compete against big players. All we can do is work harder to earn that business. I am concerned at every level of how we have built this company that we are negatively impacted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Thank you. I yield back. Thank you, Mr. Chairman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. The gentleman yields back.    The gentleman from Nevada, who is the chairman of the Subcommittee on Investigations, Oversight and Regulations, Mr. Hardy, is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412645</t>
+  </si>
+  <si>
+    <t>Hardy</t>
+  </si>
+  <si>
+    <t>Cresent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HARDY. Thank you, Mr. Chabot, for holding this hearing. I think it is highly important.    Mr. Eisenbrey talks about these groups with the realtor folks being on board with this situation. I have heard nothing but negative in my office from everybody that I have talked to, whether it is NFIB or the real estate folks. So I guess I am getting a little bit different data than maybe you are getting.    Mr. Eisenbrey, have you ever been an employer? Have you ever had your own business?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. I am an employer now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HARDY. Have you had your own business?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. I am the vice president of a 40-person nonprofit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HARDY. So you consider that----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. So I have to meet a payroll, yes, absolutely.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HARDY. Okay. Interesting.    With the comments that have been made here, you know, we have had a letter that has gone out, myself and Mr. Knight, we joined together, over 100 Congressmen signed on to it, bipartisan letter. This has been one of the most disturbing rules for the business sector that I ever listened to, even with the state legislature. We do things that more directly impact. But this across-the-board legislation, and in my district every county is going to get hit by this. Even the Las Vegas area is going to get hit very hard by this.    So, Ms. Tipton, I would like you go in, you talked about you have 100 employees, tell me what kind of impact that is going to do overall. And maybe even dabble into--all of you would like to maybe dabble into what is going to maybe happen to the hiring process. We have talked about the impact on those that are employed. What happens to the future of the hiring process?    So, Ms. Tipton, I will give you first.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. TIPTON. Thank you.    For Mineral County, depending on how the board determines we are going to handle this, we may not hire anybody. That is the bottom line. We have a finite amount of resources.    If I had an ask of this commission, see if Congress can't step back and look at this from a more commonsense standpoint maybe. Look at a sliding scale. $28,000 dollars is ridiculous, and we all know that, even in Mineral County, that is one of the poorest of the poor.    But look at this from a different--what is your population base? And when you are talking regional, if you throw Intermountain West into the Pacific Rim, the rural Intermountain West falls off the board. It doesn't even get looked at. You throw 15 counties in Nevada in with the two urban counties in Nevada, it doesn't get addressed.    What is your public to private land? All of you back here, you have private land that you have taxes on, and every square inch of your land back here produces. Ours doesn't and it can't because of the nature of the beast.    What is it going to do to us, Congressman? We won't hire. We will not increase hiring. We can't. We can't afford to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HARDY. Anybody else care to address that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. WALTERS. I would share one thought and that is the challenge in the recruiting process. I think in 1938, when the FLSA was enacted, America had a very different economy. We were strong in manufacturing. An employer would have the same job with lots of employees working in the same job, so that if those employees were cut to 40 hours, creating those part-time jobs would be--could be full-time employees, easier to recruit.    Today, for example, one company I know, they have 38 employees. They have 32 different job titles. So when it comes to reclassifying some of those employees who are exempt today to nonexempt, and then trying to recruit a part-time worker, to work those hours over 40 at straight time, it is going to be incredibly challenging, I think, to find someone who was qualified and interested in working.    And Ranking Member Velazquez, I think you said today the average may be 47 hours a week and working 7 hours overtime a week. And so the ability to merge those extra hours into a full-time job is just not feasible because they are all different jobs. So I think that is a challenge that is on the table as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HARDY. You know, the issues that we have also heard about is the education system, whether it be at the higher ed or the K through 12 situation with certain counties and areas and how that overtime ruling will impact our university system, and the individuals coming out of those higher ed programs. A lot of schools pride themselves in how they place their graduates and the opportunity they have for the students.    Do any of you hire from the university systems, and is that going to impact their opportunity to maybe enter into a job in the future?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. And the gentleman's time is expired, but you can answer the question if you like. Ms. Walters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. WALTERS. Thank you. One academic client I have, they are estimating the biggest impact to them will be for their coaches and their academic counselors. The coaches operate very, very independently now. They coach evenings, weekends, flexible hours, do not track time. Currently, they are properly classified as exempt, based on the salary increase they may, need to be reclassified as nonexempt. So that is a big philosophical change, you know--the issue of what I hear--a common response from employees is a trust issue. What are you telling me? Why do I have to track my time today and I didn't yesterday? Is it because you no longer believe I am really working, I am really producing?    Also for the admissions counselors, folks who, again, have come out of school, many have a certification. They belong to a professional, a national association. They travel, they go to college fairs. You know, they are the representative of the university or the college. Converting them to nonexempt I think, again, is going to be this philosophical, employee/employer relations challenge of, I don't understand.    So it is, I think, starting the dialogue with why we are changing and then what the strategy is. And I think the beauty of part of this dialogue is, as I don't disagree with some of what Mr. Eisenbrey has shared, what I would reverse is I think, yes, the analysis becomes easier. If you make less than $913 a week, you need to be reclassified as nonexempt, but I don't think that is the end. I think that is the very beginning.    And what I am hearing employers say is, okay, now what do I do and how do I do it? For example, I have heard at least seven different options how employers may respond to the new regulations. Four of those seven would not result in the employee receiving any more compensation than they do today. Three would. And so employers are trying to figure out which option is going to work for them, what the fiscal impact will be to their company, and what the relationship impact will be to their employees.    So it is just a lot of dialogue, and I think we are asking for time to just, you know, have the economic study, figure out what the impact is, and then move forward in a way that is going to work really well for the employees and the employers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. The gentleman's time has expired.    The gentleman from Ohio, Mr. Davidson, who is a relatively new addition to this Committee--and for those who may not know replaced Speaker Boehner in the House--is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412675</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DAVIDSON. Thank you, Mr. Chairman.    Guests, thank you for coming here and thanks for your testimony.    The past 15 years I have spent growing small manufacturing companies. I had very little background with politics other than as a news junkie and decided to run for office, so pretty recently here from the small business world. Our businesses in Ohio have about 200 employees and will have some firsthand experience from it, but I have enjoyed some roundtable feedback.    And I will say, Mr. Eisenbrey, your perspective seems out of touch with the folks in the Eighth District of Ohio. We cannot create a bigger middle class simply by decreeing it from Washington any better than it has been decreed from any throne anywhere in the world. It is ignorant of history, economics, and math.    And as an example, California was well below the threshold at 41. Do you know the median annual income in California?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Not offhand, no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DAVIDSON. It is $67,458 in 2014. That was number three.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. That is not true. That could be a family income. That is not an individual income.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DAVIDSON. And in the State of Ohio it is $45,000, which is down at number 35. So the idea that there could be some national edict, that is going to set a standard, is entirely market distorting. And when your solution, which is in line with the Administration's solution, is we will just confiscate it from the owners, is also ignorant.    Commissioner Tipton, thanks for your testimony. Who are the owners of your county that this would be confiscated as from?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. TIPTON. Sir, it is my taxpayers whose median annual income is $38,000, per household.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DAVIDSON. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. TIPTON. Twenty-five percent of my county lives at or below the poverty level. Twenty-four percent of my county is 65 or older. Those are the constituents that it would impact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DAVIDSON. Very similar for some of our counties in the Eighth District of Ohio. We have some great universities in the Eighth District of Ohio, and our country is blessed with some great educational solutions, not just higher education but skilled trades.    And who are the owners there? The bill payers are students. Students are the ones that are going to pick up this tab, and, you know, last I checked, students are really dealing with a way to pay for that tuition. So your solution is to give these researchers, who are benefiting from better tuition and degrees, bigger wages, which are really financed by student loans. Students, young people, 18 to 25 years old, generally are going to pay these wages, okay. And they have been decreed with very little input. So there is not a universal class warfare confiscation scheme that is going to work.    I think that the other thing that, Mr. Robinson, you touched on, and from SHRM, we have been members for a long time, so thanks for your work in the field of HR. One of the things that really this rule also seems very ignorant of is the changing culture. So you alluded to it with manufacturing and kind of the stereotypical things. And Mr. Robinson, you also alluded to it with the way people work. They are sending emails. FIB, also very active, small businesses in the State of Ohio in the west just as in east.    So if you guys could comment on the impact of culture and just, you know--I don't know how many people came to the room without some version of a smart phone. How does this rule affect the ability to do work in today's economy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. WALTERS. Thank you for the question. One thing I would share is, back to kind of whether this is the beginning or the end, the next thing that will be, or we understand will be happening, the Department of Labor has already published in its regulatory agenda, that it will be publishing an RFI, a request for information, seeking feedback from employees and employers about how they are tracking the time that nonexempt employees use electronic devices.    So that is on the radar. We add to that population, our exempt employees today who will be converted to nonexempt so in the little, small litany of pay practices where we have to be cognizant of how we pay, when we pay, and for what we pay our nonexempt employees, we need to be cognizant of that as well. So there is just a whole lot in the mix, I think.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DAVIDSON. Thank you for that.    I just have one other thing. You talk about that and just to where this will lead us, well, just install an app for that. And that will be yet another encroachment into people's Fourth Amendment privacy rights. So we have all here sworn to support and defend the Constitution, and we continue to see people who have sworn that oath trample it. So thanks for any other feedback you guys can give.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. The gentleman's time has expired.    The gentleman from Mississippi, Mr. Kelly, is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412673</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. Thank you, Chairman, for holding this hearing today.    And thank you, witnesses, for being here.    You know, it is so frustrating to me to hear people who have no idea what is going on. And Mr. Eisenbrey talks about he is a private employer, and he is a small business owner, but Mr. Robinson, Mr. Macre, and Mr. Eisenbrey's testimony states Economic Policy Institute is both a nonprofit and a small business entity.    For the record, I would like to share just a few facts with you about the Economic Policy Institute that I learned from its Website. From 2010 to 2014, EPI received 27 percent of its funding from unions and 57 percent from foundations. The chairman of EPI's board is none other than Mr. Trumka, the chairman of the AFL-CIO. So from my perspective, EPI has absolutely nothing in common with the other small businesses that we have here.    Mr. Robinson or Mr. Macre, does 80 percent of your funding come from unions or foundations, or does it come from you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. ROBINSON. Our revenue comes from our customers that we have to deliver a service to that adds value. So no, no, sir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. And I wish that everything was cherry blossoms and rainbows. I wish everybody could have all the money that they want regardless of where they are from or what job they do. I wish we all made equal amounts. I wish I had a lot more money than I do. However, that is just not going to happen, and you can't take it from owners who don't have it.    Having owned a small business, a law firm, a private practice law firm, where I did write the checks, and the money came from me, not some outside foundation, from the clients that I represented, I think it is important to understand that it is not going to create 100,000 jobs. I don't care what the statistics say. And if it does create jobs, those jobs are going to be part-time.    I also worked as a city prosecutor in a county government for a long time. Most of the salaried employees made less than this amount in Mississippi, which is very, very rural. But that is a good living there. You understand this, that what happens is people just go home or you don't--you have a hiring freeze, you don't rehire because personnel is the largest cost of a local government.    And you understand that, Commissioner. Can you comment just a little bit about the difference between a part time and the benefits they receive versus a full-time employee that they receive from the county or city?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. TIPTON. Yes, sir. Thank you for the question. In Mineral County, a part-time employee is 19 hours a week. They cannot work any more than that. State won't allow that or then you have to pay retirement on them. They get workman's comp, that is what they get. A full-time employee, we pay 100 percent of their benefits. Last year it was probably $500 a week per an employee.    And my next worry is, it has gone up, of course, because healthcare has. Mineral County, Nevada, some of my employees, the day may come, in the not too distant future, where they are paying taxes on their healthcare. And that is going to be interesting too.    Yeah, and that is it. From a part-timer they get workman's comp, that is what they get, and Social Security, period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. And I also take exception to professionals. And again, I think there is just--you know, even within my district, it is 22 counties. I have one county that has 167,000 people in it. I have one county that has 8,000 people in it. So to compare those incomes in those counties is not--so I understand exactly what you are saying.    And when you throw in Atlanta, Georgia, with Calhoun City, Mississippi, or Vardaman, Mississippi, those are not equal and you can't compare statistics about what salaries are based on those. Would you agree with that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. TIPTON. Oh, definitely. The community I live closest to is a population of 200. The next community is 32. The largest town--no incorporated cities in Mineral County--the largest town is about 3,000. About 900 of my county residents live on the Walker River reservation. We--yeah, that is my residence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. Thank you.    And the final point I will say is, I worked for the government as a district attorney, and so I hired people.    Most of my investigators that worked for me--which are long-time law enforcement officers who are stepping up in a job and it paid at or less than what the salaried amount is now, which is a great limit--I had ADAs, assistant district attorneys who were coming out of law school, and I could not pay them $49,000, $50,000 a year because it was not within my budget.    But the experience and the trial experience and the mentorships and the things those people got, but what would have happened if they would have said you have to pay them this or pay them overtime, I would just not have hired someone. I would have had less assistant district attorneys and less opportunities. Can any of you comment on that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. And the gentleman's time has expired, but you can comment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. ROBINSON. Well, sure, in brief, you take our--and not just us. Every startup who--technology startup creating the bulk of the high-paying jobs, in this country right now, if you take the wage base up 20 percent, you are eliminating one job every five hires. That is the math. It is simple. It is I can higher one fewer person in five. Now scale that across thousands of businesses like ours and you have the suppression on job growth which seems to me antithetical to the whole point of this exercise.    I mean, just let us--it is a labor market. People can go where they want. If we treat them poorly, they will leave. We compete for talent. It is not just the salary. It is equity and stock options and all the other tools we have to compete as an employer. This is a giant, blunt instrument that we now have one tool and it really doesn't help us differentiate and hire the people we need.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Anybody else need to comment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Mr. Chairman, could I just comment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Go ahead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. You know, the beauty of a one-size-fits-all rule that has been attacked here today is that every business is subject to the same rule, so that all of your competitors, will be subject to the same rule. And the notion that raising labor costs is somehow a bad thing leads us to having no minimum wage, which, you know, that would not be a good thing and the American people wouldn't support that.    That the notion that every time you raise labor costs you are somehow crimping business would--I think it is actually the biggest cause for the wage stagnation that we have had for the last 30 or 40 years, that that has been raised--it has sort of been deified and it leaves employees behind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. ROBINSON. If our ability to pay was the same as local corporations----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. EISENBREY. Excuse me, I didn't interrupt anyone else, and I would like you not to interrupt me. Thank you.    I would just like to say that somehow we managed as a Nation from 1938 until the late 1970s with rules that set a higher threshold than we have now. Workers, as the ranking member said, we had a much higher----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. Mr. Chairman, I would like to claim back my time. He has gone over what the amount is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. It is the gentleman's time. I did want to give somebody else a chance to respond here, if that is okay with the gentleman. Mr. Robinson or----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. ROBINSON. Well, my comment was just, bigger businesses have a much greater--and excuse me for the interruption--much greater impact to bear the cost than a small company like ours.    Oracle, you know, in many ways we compete against, multibillion dollar company, multibillion dollars in profit publicly traded. I compete for deals with those guys. I can't just take my cost up. I don't have it. One size does not fit all. I am this big; they are this big; there is a difference. That is the problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Okay, the gentleman's time has expired.    We want to thank all the witnesses for being here today and participating in this hearing.    From my perspective, as Chair, I would indicate, I believe that the overtime rule is going to do more harm than good and is likely to pose a considerable challenge for small businesses, especially those with thin margins, which is most small businesses, as well as, small nonprofits, and small governmental jurisdictions, as you, Commissioner Tipton, have indicated, with very tight budgets.    However, the most damaging repercussions are likely to be, I believe, the loss of employee morale as workers are shifted from salaried positions to hourly status. Benefits very well may be reduced, as the testimony was; flexible work options will be limited; and opportunities for career advancement may well be decreased.    My colleagues and I will continue, on both sides of the aisle, to work on legislative solutions that help America's small employers and their workers succeed and reverse the harmful effects caused by this new overtime rule.    I would ask unanimous consent that members have 5 legislative days to submit statements and supporting materials for the record.    And without objection, so ordered. And if there is no further business to come before the Committee, we are adjourned. Thank you very much.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +769,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,33 +794,2853 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s"/>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s">
+        <v>68</v>
+      </c>
+      <c r="H54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s">
+        <v>81</v>
+      </c>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s">
+        <v>81</v>
+      </c>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>96</v>
+      </c>
+      <c r="G66" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" t="s">
+        <v>97</v>
+      </c>
+      <c r="I66" t="s">
+        <v>98</v>
+      </c>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>96</v>
+      </c>
+      <c r="G68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" t="s">
+        <v>97</v>
+      </c>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>42</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" t="s">
+        <v>97</v>
+      </c>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>96</v>
+      </c>
+      <c r="G72" t="s">
+        <v>68</v>
+      </c>
+      <c r="H72" t="s">
+        <v>97</v>
+      </c>
+      <c r="I72" t="s">
+        <v>98</v>
+      </c>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>96</v>
+      </c>
+      <c r="G74" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" t="s">
+        <v>97</v>
+      </c>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+      <c r="J74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>96</v>
+      </c>
+      <c r="G76" t="s">
+        <v>68</v>
+      </c>
+      <c r="H76" t="s">
+        <v>97</v>
+      </c>
+      <c r="I76" t="s">
+        <v>98</v>
+      </c>
+      <c r="J76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>111</v>
+      </c>
+      <c r="G78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H78" t="s">
+        <v>112</v>
+      </c>
+      <c r="I78" t="s">
+        <v>113</v>
+      </c>
+      <c r="J78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>111</v>
+      </c>
+      <c r="G80" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" t="s">
+        <v>112</v>
+      </c>
+      <c r="I80" t="s">
+        <v>113</v>
+      </c>
+      <c r="J80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>111</v>
+      </c>
+      <c r="G82" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" t="s">
+        <v>112</v>
+      </c>
+      <c r="I82" t="s">
+        <v>113</v>
+      </c>
+      <c r="J82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>32</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>111</v>
+      </c>
+      <c r="G84" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" t="s">
+        <v>112</v>
+      </c>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+      <c r="J84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>42</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>42</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>29</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>42</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" t="s">
+        <v>111</v>
+      </c>
+      <c r="G93" t="s">
+        <v>68</v>
+      </c>
+      <c r="H93" t="s">
+        <v>112</v>
+      </c>
+      <c r="I93" t="s">
+        <v>113</v>
+      </c>
+      <c r="J93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>29</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
